--- a/test-files/output.xlsx
+++ b/test-files/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
   <si>
     <t>Dia</t>
   </si>
@@ -98,12 +98,6 @@
   </si>
   <si>
     <t>M = Pesos</t>
-  </si>
-  <si>
-    <t>Impuesto</t>
-  </si>
-  <si>
-    <t>1,2 o 0</t>
   </si>
   <si>
     <t>archivo/cotizaciones</t>
@@ -511,7 +505,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -843,7 +837,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -855,75 +849,72 @@
       <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14">
         <v>11111</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>4112</v>
       </c>
       <c r="G14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>11112</v>
+      </c>
+      <c r="H15" t="s">
         <v>31</v>
       </c>
-      <c r="H14" t="s">
-        <v>32</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>27</v>
+      </c>
+      <c r="L18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="I20" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <v>11112</v>
-      </c>
-      <c r="H15" t="s">
-        <v>33</v>
-      </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" t="s">
-        <v>29</v>
-      </c>
-      <c r="L18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="F19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="I20" t="s">
+    <row r="21" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="K21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="K22" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="K21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="K22" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
